--- a/websiteConnectionChart.xlsx
+++ b/websiteConnectionChart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ah1302862\Desktop\Spring 2019\Enterprise\Github\ParQu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:0_{12157046-BEA6-4601-BA82-FE4FDB5CA1A6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD37FAC-9414-479A-88B6-536A27671B1C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" xr2:uid="{3FC205F3-491D-4B3F-9BE7-B33E12620507}"/>
   </bookViews>
@@ -406,10 +406,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
+                  <c:v>0.48380000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.42420000000000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.48380000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -465,10 +465,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.25580000000000003</c:v>
+                  <c:v>0.38240000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.36220000000000002</c:v>
+                  <c:v>0.36899999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -524,10 +524,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.29120000000000001</c:v>
+                  <c:v>0.45119999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.25480000000000003</c:v>
+                  <c:v>0.40479999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -583,10 +583,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.45219999999999999</c:v>
+                  <c:v>0.81220000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.4108</c:v>
+                  <c:v>0.83030000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -642,10 +642,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.38240000000000002</c:v>
+                  <c:v>0.3306</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.36899999999999999</c:v>
+                  <c:v>0.32979999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1803,7 +1803,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1826,10 +1826,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.42420000000000002</v>
+        <v>0.48380000000000001</v>
       </c>
       <c r="C2">
-        <v>0.48380000000000001</v>
+        <v>0.42420000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1837,10 +1837,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.25580000000000003</v>
+        <v>0.38240000000000002</v>
       </c>
       <c r="C3">
-        <v>0.36220000000000002</v>
+        <v>0.36899999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1848,10 +1848,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.29120000000000001</v>
+        <v>0.45119999999999999</v>
       </c>
       <c r="C4">
-        <v>0.25480000000000003</v>
+        <v>0.40479999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1859,10 +1859,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.45219999999999999</v>
+        <v>0.81220000000000003</v>
       </c>
       <c r="C5">
-        <v>0.4108</v>
+        <v>0.83030000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1870,10 +1870,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.38240000000000002</v>
+        <v>0.3306</v>
       </c>
       <c r="C6">
-        <v>0.36899999999999999</v>
+        <v>0.32979999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
